--- a/comparison_results.xlsx
+++ b/comparison_results.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9472868217054263</v>
+        <v>0.9410852713178295</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9254385964912281</v>
+        <v>0.9122807017543859</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9254385964912281</v>
+        <v>0.9203539823008849</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9254385964912281</v>
+        <v>0.9162995594713657</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9395348837209302</v>
+        <v>0.9441860465116279</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9122807017543859</v>
+        <v>0.9298245614035088</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9162995594713657</v>
+        <v>0.9137931034482759</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9142857142857143</v>
+        <v>0.9217391304347826</v>
       </c>
     </row>
     <row r="4">
@@ -558,38 +558,57 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ExtraTrees</t>
+          <t>LightGBM</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8573643410852713</v>
+        <v>0.9488372093023256</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7149122807017544</v>
+        <v>0.9254385964912281</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8578947368421053</v>
+        <v>0.9295154185022027</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7799043062200957</v>
+        <v>0.9274725274725275</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>ExtraTrees</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.8527131782945736</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6885964912280702</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8674033149171271</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.7677261613691931</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>GradientBoosting</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B9" t="n">
         <v>0.951937984496124</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>0.9342105263157895</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.9301310043668122</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E9" t="n">
         <v>0.9321663019693655</v>
       </c>
     </row>

--- a/comparison_results.xlsx
+++ b/comparison_results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9410852713178295</v>
+        <v>0.9457364341085271</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9122807017543859</v>
+        <v>0.9298245614035088</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9203539823008849</v>
+        <v>0.9177489177489178</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9162995594713657</v>
+        <v>0.9237472766884531</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9441860465116279</v>
+        <v>0.9364341085271318</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9298245614035088</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9137931034482759</v>
+        <v>0.9047619047619048</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9217391304347826</v>
+        <v>0.9106753812636166</v>
       </c>
     </row>
     <row r="4">
@@ -581,16 +581,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8527131782945736</v>
+        <v>0.8682170542635659</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6885964912280702</v>
+        <v>0.7280701754385965</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8674033149171271</v>
+        <v>0.8783068783068783</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7677261613691931</v>
+        <v>0.7961630695443646</v>
       </c>
     </row>
     <row r="9">

--- a/comparison_results.xlsx
+++ b/comparison_results.xlsx
@@ -1,37 +1,105 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mohammad-hossein\Desktop\codes\ml-project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA00CEDD-FE07-4523-A00D-F8D54DE97E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>F1 Score</t>
+  </si>
+  <si>
+    <t>KNN_k=2</t>
+  </si>
+  <si>
+    <t>KNN_k=3</t>
+  </si>
+  <si>
+    <t>KNN_k=4</t>
+  </si>
+  <si>
+    <t>KNN_k=5</t>
+  </si>
+  <si>
+    <t>KNN_k=6</t>
+  </si>
+  <si>
+    <t>KNN_k=7</t>
+  </si>
+  <si>
+    <t>KNN_k=8</t>
+  </si>
+  <si>
+    <t>KNN_k=9</t>
+  </si>
+  <si>
+    <t>KNN_k=10</t>
+  </si>
+  <si>
+    <t>SVM_linear</t>
+  </si>
+  <si>
+    <t>SVM_poly</t>
+  </si>
+  <si>
+    <t>SVM_rbf</t>
+  </si>
+  <si>
+    <t>SVM_sigmoid</t>
+  </si>
+  <si>
+    <t>NaiveBayes</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +114,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,310 +438,268 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Model</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Accuracy</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Recall</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Precision</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>F1 Score</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>KNN_k=2</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.5906976744186047</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.07456140350877193</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.2428571428571429</v>
-      </c>
-      <c r="E2" t="n">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>0.59069767441860466</v>
+      </c>
+      <c r="C2">
+        <v>7.4561403508771926E-2</v>
+      </c>
+      <c r="D2">
+        <v>0.24285714285714291</v>
+      </c>
+      <c r="E2">
         <v>0.1140939597315436</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>KNN_k=3</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.5565891472868217</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2850877192982456</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.3457446808510639</v>
-      </c>
-      <c r="E3" t="n">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>0.55658914728682174</v>
+      </c>
+      <c r="C3">
+        <v>0.28508771929824561</v>
+      </c>
+      <c r="D3">
+        <v>0.34574468085106391</v>
+      </c>
+      <c r="E3">
         <v>0.3125</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>KNN_k=4</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
         <v>0.5968992248062015</v>
       </c>
-      <c r="C4" t="n">
-        <v>0.1008771929824561</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.2948717948717949</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.1503267973856209</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>KNN_k=5</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+      <c r="C4">
+        <v>0.10087719298245609</v>
+      </c>
+      <c r="D4">
+        <v>0.29487179487179488</v>
+      </c>
+      <c r="E4">
+        <v>0.15032679738562091</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
         <v>0.5736434108527132</v>
       </c>
-      <c r="C5" t="n">
-        <v>0.1973684210526316</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.3284671532846715</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.2465753424657534</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>KNN_k=6</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.6046511627906976</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1052631578947368</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="C5">
+        <v>0.19736842105263161</v>
+      </c>
+      <c r="D5">
+        <v>0.32846715328467152</v>
+      </c>
+      <c r="E5">
+        <v>0.24657534246575341</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>0.60465116279069764</v>
+      </c>
+      <c r="C6">
+        <v>0.10526315789473679</v>
+      </c>
+      <c r="D6">
         <v>0.32</v>
       </c>
-      <c r="E6" t="n">
-        <v>0.1584158415841584</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>KNN_k=7</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.5829457364341085</v>
-      </c>
-      <c r="C7" t="n">
+      <c r="E6">
+        <v>0.15841584158415839</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>0.58294573643410852</v>
+      </c>
+      <c r="C7">
         <v>0.1710526315789474</v>
       </c>
-      <c r="D7" t="n">
-        <v>0.3277310924369748</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.2247838616714697</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>KNN_k=8</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.6031007751937985</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.07017543859649122</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="E8" t="n">
+      <c r="D7">
+        <v>0.32773109243697479</v>
+      </c>
+      <c r="E7">
+        <v>0.22478386167146969</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>0.60310077519379846</v>
+      </c>
+      <c r="C8">
+        <v>7.0175438596491224E-2</v>
+      </c>
+      <c r="D8">
+        <v>0.26666666666666672</v>
+      </c>
+      <c r="E8">
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>KNN_k=9</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
         <v>0.6</v>
       </c>
-      <c r="C9" t="n">
-        <v>0.1535087719298246</v>
-      </c>
-      <c r="D9" t="n">
+      <c r="C9">
+        <v>0.15350877192982459</v>
+      </c>
+      <c r="D9">
         <v>0.35</v>
       </c>
-      <c r="E9" t="n">
-        <v>0.2134146341463415</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>KNN_k=10</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0.6186046511627907</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.08333333333333333</v>
-      </c>
-      <c r="D10" t="n">
+      <c r="E9">
+        <v>0.21341463414634149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>0.61860465116279073</v>
+      </c>
+      <c r="C10">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D10">
         <v>0.3392857142857143</v>
       </c>
-      <c r="E10" t="n">
-        <v>0.1338028169014084</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>SVM_linear</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+      <c r="E10">
+        <v>0.13380281690140841</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
         <v>0.8418604651162791</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>0.7807017543859649</v>
       </c>
-      <c r="D11" t="n">
-        <v>0.7739130434782608</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.777292576419214</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>SVM_poly</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0.6465116279069767</v>
-      </c>
-      <c r="C12" t="n">
+      <c r="D11">
+        <v>0.77391304347826084</v>
+      </c>
+      <c r="E11">
+        <v>0.77729257641921401</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>0.64651162790697669</v>
+      </c>
+      <c r="C12">
         <v>0</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>0</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>0</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>SVM_rbf</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0.6465116279069767</v>
-      </c>
-      <c r="C13" t="n">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>0.64651162790697669</v>
+      </c>
+      <c r="C13">
         <v>0</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>0</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>0</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>SVM_sigmoid</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0.5581395348837209</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2456140350877193</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.3313609467455622</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.2821158690176322</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>NaiveBayes</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0.7984496124031008</v>
-      </c>
-      <c r="C15" t="n">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>0.55813953488372092</v>
+      </c>
+      <c r="C14">
+        <v>0.24561403508771931</v>
+      </c>
+      <c r="D14">
+        <v>0.33136094674556221</v>
+      </c>
+      <c r="E14">
+        <v>0.28211586901763219</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>0.79844961240310075</v>
+      </c>
+      <c r="C15">
         <v>0.7192982456140351</v>
       </c>
-      <c r="D15" t="n">
-        <v>0.7130434782608696</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.7161572052401747</v>
+      <c r="D15">
+        <v>0.71304347826086956</v>
+      </c>
+      <c r="E15">
+        <v>0.71615720524017468</v>
       </c>
     </row>
   </sheetData>
